--- a/data/hotels_by_city/Dallas/Dallas_shard_388.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_388.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="801">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Samantha J</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed here for a night while traveling for business. Hotel was very nice. Room was clean, bed was comfortable. Hotel was within a five minute drive of a handful of different restaurants. I just ate at the restaurant on-site. Food was very good.More</t>
   </si>
   <si>
+    <t>Kari N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r532982076-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Amazing! The bed was perfect, the pool was warm, staff were ALWAYS friendly! Near to any point of interest in the Dallas area and lots of options nearby! Very clean and lots of space in the rooms. We would come here again in a heartbeat!More</t>
   </si>
   <si>
+    <t>Felicia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r520893422-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Customer service is impeccable!! The staff is super friendly and very accommodating.  The rooms are spacious and clean. There's a laundromat on the second floor - also clean. There's also a full bar and an area downstairs where people can congregate and socialize. Best Holiday Day Inn I've been too!More</t>
   </si>
   <si>
+    <t>tuckicker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r511420280-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>The receptionist named Olga has the best customer service skills BOTH over the phone and face to face that I've experienced in a long time. My initial phone call was made by me under stress and I had no solution for my dilemma dealing with Travelocity's lack of organization- Olga listened and went to work  - after "SHE" solved it she followed up to make sure everything worked out - the next day when I arrived I just said Hello and off voice recognition alone she knew who I was - she treated me like familyI want to take a second and congratulate Holiday Inn for having someone (people) like Olga - she continues the long tradition of great customer service Holiday Inn had built a reputation on for years - KNOW I actually see whyMore</t>
   </si>
   <si>
+    <t>Mandy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r496377918-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>We had four room at this hotel in April while in town for a funeral.  The hotel itself was very nice, very clean, and very conveniently located.  The food in the restaurant was great as well.  Leesa (I so hope I have her name right) helped us the most and was by far one of the most exceptional hotel staff I have ever dealt with.  Our maid service the first day took extra care in cleaning our room, even lining up shoes and arranging my children's stuffed animals.  The staff even found out we were there for my Aunt's passing and the staff even left a sympathy card in my grandparents room.  I was so impressed with all of that.  But unfortunately, a few bad moments can deter from the good.  Long story short - we had left an item there. The staff grossly miscommunicated, told us it was at the front desk, only for us to arrive and the item and never been found.  We also frequently found the desk unattended, the phone unanswered, and a night auditor that seemed extremely put out when approached for anything.  Overall, positive experience, but it seems the staff is greatly inconsistent in their approach.More</t>
   </si>
   <si>
+    <t>Joe W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r439834964-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>I stayed with my family in double Queen room for four nights and was impressed by every bit of our experience The rooms are clean, well lit, and well appointed for casual travelers, with plenty of outlets, desk space, and drawer space. The pool area was fantastic. There is a nice hot tub and a decent sized pool with a very shallow wading area perfect for our toddler to play around in, as well as a deeper area for the bigger kids. The breakfast buffet had very nice options, and the bar had really good happy hour specials. Lastly, the staff were polite, professional, and eager to please. I definitely recommend that you stay at this hotel if you're in the area. More</t>
   </si>
   <si>
+    <t>AlLiCeV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r436262586-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Very pleasant, clean business hotel with spacious rooms. Top marks for friendliness of evening front desk staff. Basic breakfast buffet available. Convenient location plus walking distance from good restaurants.Would stop there again if in the area. More</t>
   </si>
   <si>
+    <t>JHAR53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r429481223-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>This Holiday Inn met our expectations as far as cleanliness, courtesy and accommodations. Rooms were clean and the staff was great. We only had one bad experience and that was the dinner we ordered through room service. The food was over cooked and they didn't deliver all we ordered and had to call back to get the rest of our order. What we paid for it you would expect better food. We will stay again so overall 4 stars is great. More</t>
   </si>
   <si>
+    <t>David_of_Brisbane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r428267283-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>This hotel seemed perfect, close to restaurants and close to Dallas and where we were visiting.  Sadly we asked for a cot in our pre booking request, but got no cot. Thankfully we were travelling with our own in the end anyway. Also sadly, the room wasn't cleaned or bins emptied when we went out for the day. We had also asked for an additional pillow on our first morning. That didn't make it to our room either. We rang reception, and while they were confused that we hasn't had our room cleaned, there was no apology or seeming concern. Very disappointing experience and wondering why I'm an IHG member still if the brand cannot deliver on its promise.More</t>
   </si>
   <si>
+    <t>Roby M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r426619009-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
     <t>Good Hotel with receptionists very professional and kind.30 min from downtown, FW airport and lake Ray Hubbard. Many good restaurant in this area. Pool and fitness area very good. Any day cookies for all!More</t>
   </si>
   <si>
+    <t>Debra D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r425991461-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>Nice, clean room rooms. I loved the separate living area from bedroom. The bar/restaurant was nice, peaceful area to just tslk &amp; relax. The food was very good with grest  prices. Waitress/bartender  was very sweet and did a great job.More</t>
   </si>
   <si>
+    <t>lovetohavefun2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r425265226-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>We held our 40th Class Reunion at this Hotel last Saturday.   We were looking for a place that would be nice, yet reasonably priced for our classmates.   The Foyer/Reception area was large and roomy which made it conductive for greeting guests and also had comfy chairs if anyone wanted to leave the Banquet Room and just chat.   I was concerned about the Banquet Rooms being long and narrow, but it actually worked out fine and there was plenty of room for people to mingle and not get lost in the crowd.   There was an ample area for our DJ to set up and play our music and we rented the wooden dance floor from the hotel which worked out great.  A drop down screen for showing our DVD was provided by the hotel as well.   Amanda Young was easy to work with and very accommodating to our concerns and needs.   The food was great and service was awesome.    We had many classmates tell us that this was the best Reunion ever!   I would definitely use this Hotel for future Events and it would be a pleasure to work with Amanda again!More</t>
   </si>
   <si>
+    <t>cheermom91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r420980365-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>This is an average hotel- got a good deal and the check in staff was very friendly. She helped us get the best rate. We received breakfast coupons. The room was nice and cool. Beds were soft and comfortable. We didn't have time to visit the indoor pool but it looked fun! The breakfast buffet was very good- lots of options. Coffee was included but not juice- you had to pay $2.50 for orange or apple juice. The people were all nice that we saw. The area is near a lot of restaurants. It is right off the George Bush Toll way.More</t>
   </si>
   <si>
+    <t>bsan3456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r412435178-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>I recently stayed here for 4 nights for business. I really enjoyed my stay. Staff was very friendly and helpful. My room was quiet and comfortable. Room is good size and had plenty of room. They have a full service restaurant. Breakfast is a buffet and is good. They have most anything you would want. They  have a local shuttle but I never used it so not sure where all they can take you. They do not have an airport shuttle. The only real complaint is the internet is not very good. Never seemed to be a very strong signal. Other than that it was a very good stay.More</t>
   </si>
   <si>
+    <t>chrissyhouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r408167826-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>Very unknowledge staff and really could care less. We were traveling for a funeral for a family member, with 4 small children. My daughter n law came and older mother came, to stay at the hotel and swim while we attended the funeral. We promised the children if they were good at family visitation night prior too the funeral that we would go back too hotel too swim. Which is why i choose this hotel is because of the inside pool. When returning to hotel the pool was closed. When I asked why, the desk clerk basically didn't know and wasn't willing too see why and didnt have a clue when it would be. She was unwilling to call management nor did she act like she cared, that we were left with no entrainment for 4 kids and they would be stuck in a motel room for 3-4 hours with nothing too do. I called the complaint department and was told it would be open the next morning. The next morning is wasn't opened but was told later that morning it would be open. We left thinking it would be open later that morning and everyone would be entertained and all good but it wasn't. My poor daughter n law and mother still stayed with them while we attended the funeral but we didn't get too go to rest of family functions because we had to back track and come...Very unknowledge staff and really could care less. We were traveling for a funeral for a family member, with 4 small children. My daughter n law came and older mother came, to stay at the hotel and swim while we attended the funeral. We promised the children if they were good at family visitation night prior too the funeral that we would go back too hotel too swim. Which is why i choose this hotel is because of the inside pool. When returning to hotel the pool was closed. When I asked why, the desk clerk basically didn't know and wasn't willing too see why and didnt have a clue when it would be. She was unwilling to call management nor did she act like she cared, that we were left with no entrainment for 4 kids and they would be stuck in a motel room for 3-4 hours with nothing too do. I called the complaint department and was told it would be open the next morning. The next morning is wasn't opened but was told later that morning it would be open. We left thinking it would be open later that morning and everyone would be entertained and all good but it wasn't. My poor daughter n law and mother still stayed with them while we attended the funeral but we didn't get too go to rest of family functions because we had to back track and come get them out of the hotel. The AC didn't work good either. So the problem wasn't resolved nor did anyone really care. I registered a complaint but have never been contacted for a resolution. Dont stay here is my best advice. More</t>
   </si>
   <si>
+    <t>Carla J A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r394892677-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>The service was so very poor. The Wait Staff, especially Lenore was wonderful,. Maids were so very helpful and friendly we never had a complaint about the Housekeeping Staff. Management was terrible. We were charged a 100.00 food charge and we waited at the front desk to check out and get help with the charge, no one could be found. Lenore came over right away and tried to find someone to help. The food was charged to the wrong room she found the ticket. The person at the front desk could not help, we had to talk to a manager, Trip advisor said Breakfast was free, it was not free for us. We will never stay there again or recommend anyone to stay at this hotel. Hot tub was out of service.More</t>
   </si>
   <si>
+    <t>BeachbumAggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r394754474-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>Front desk was friendly. My room wasn't very cool so I turned it down and went to dinner, no more cooling upon returning. Cool is important in Texas in July! Front desk gentleman came up to check and messed with it asking me to wait 15 mins to cool, didn't work.  They helped load me up n moved me to 2nd room, ac had been off so room was hot and muggy but cooling off some for a bit then it stopped cooling, result was moved again. 3rd room finally cool but a long process, didn't get settled in until 10:30pm or so. Looks a bit worn for new hotel. Floors could use a good cleaning in rooms.More</t>
   </si>
   <si>
+    <t>Stacey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r387633618-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -612,6 +666,9 @@
     <t>My room was on the top floor and very quiet.  The staff are extremely nice.  Beds are comfortable and the room was great (water pressure in bathroom could be stronger) The breakfast was very tasty and the waitresses are pleasant.More</t>
   </si>
   <si>
+    <t>kaycjackson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r378109713-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -639,6 +696,9 @@
     <t>Inside pool that is really nice, close to lots of places to eat, shop and near water park. They have the best cookies at night.   Staff is great. Rooms are really nice and quiet. Got d parking and safe.More</t>
   </si>
   <si>
+    <t>Wmrdr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r374253787-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -663,6 +723,9 @@
     <t>I have stayed at this hotel for a couple of nights, every other week, for the past 4 yrs and the maintenance and housekeeping has steadily declined in quality since I began staying here. The internet used to be fairly fast, but has now slowed to a crawl. About the only reason I continue to stay here is it is convenient to work, it is in a safe area, and there are lots of restaurants within a short distance.It is requested on my IHG profile, and I have repeatedly asked them to be placed on the end of the hotel nearest the elevators, but they seem to take great delight in putting me as far down the long hall as possible toward the other end of the building. My bad knee really doesn't appreciate having to make that long hike to the other end of the hotel after being on it all day. I will be staying there again next week, and if they stick me at the far end again, I will be taking my business elsewhere.More</t>
   </si>
   <si>
+    <t>ram e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r370813698-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -687,6 +750,9 @@
     <t>They use trainees for handling the nightshift on Fridays. We called and we were like 45 minutes away to confirm our reservation and they said we have the room. Once we arrived we got the keys to the room and we went to open but would not open. I comeback downstairs and she said will change the room. They change me to single bed instead of double bed, i comeback downstairs again!!! Guess what the trainee wrote the wrong room number on the card. What a mess. I will never stay here againMore</t>
   </si>
   <si>
+    <t>seger01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r358003546-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -714,12 +780,18 @@
     <t>This hotel is top notch.  The location is fantastic. Next door to a Bass Pro Store and behind the hotel are four restaurants , all are great .  The staff is the best, very helpful and helped with questions s. I will stay here againMore</t>
   </si>
   <si>
+    <t>Keith W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r350921277-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
     <t>350921277</t>
   </si>
   <si>
+    <t>Andre2999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r348174060-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -774,6 +846,9 @@
     <t>I stayed for a weekend once and booked 3 nights for my Dad during a Christmas weekend. Both were Priceline blind auction reservations for the North Garland area. I SO wish Priceline booked me at the Hyatt Place Garland across the freeway from this Holiday Inn. This Holiday Inn had a terrible smell both in the rooms, on the bed and in the main lobby. The green and orange colored decor on the walls and carpets are an eye sore. No free breakfast unlike Hyatt Place. If cleanliness is important for you, look elsewhere in Garland. In fact, look across the expressway to the Hyatt Place.More</t>
   </si>
   <si>
+    <t>Ashley Janson W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r340973406-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -799,6 +874,9 @@
   </si>
   <si>
     <t>Everything was very nice. We checked in late, but that was not a problem. It was a very comfortable stay. They have a  friendly staff and it's very clean. Location was great with easy access to dining and the highway.More</t>
+  </si>
+  <si>
+    <t>AEB_MN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r340451700-Holiday_Inn_Garland-Garland_Texas.html</t>
@@ -831,6 +909,9 @@
 The hotel looks great from the outside, but is in need...We were there for a multi-night stay, and had also arranged a catered party on site. The party was great--we did a Tex Mex buffet with fajitas, rice, beans, etc. and it was really good. Truly, delicious. They did a great job with all of that. BUT, before we could get to that part, let me talk about arrival. I had communicated ahead of time with the staff because we were taking the train from DFW to the Downtown Garland station, and the hotel offers a free shuttle pick up. I was told to call 10 minutes before we were at the station, which I did. No shuttle when we arrived. I called again--each time explicitly stating DOWNTOWN GARLAND for pick up--was told that someone was "on the way." No one showed up. After multiple phone calls and almost AN HOUR waiting in what was actually cold weather for TX--in the 40s--in the dark, the shuttle finally showed up. The driver had been sent to the wrong place.When we got there, absolutely no reaction to this. No offer to make it right in any possible way. A completely insincere apology from the front desk staff. Just nothing. Honestly, every time we had to deal with the front desk staff, they were TERRIBLE. Unfriendly, uncaring, inattentive, slow. Awful, Every single one of them. They all need to be replaced. The hotel looks great from the outside, but is in need of serious upgrades. Everything is looking worn and dated, and it just seems like the staff is serious amateur hour. Last time we were in Garland, we stayed across the PGBT at the Hyatt--MUCH better. I cannot recommend that anybody choose the HI over the Hyatt. I will not stay here again. Ever.More</t>
   </si>
   <si>
+    <t>JULIE L L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r334030474-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -858,6 +939,9 @@
     <t>This was probably the nicest Holiday Inn I have ever stayed at. Every staff member I came in contact with was beyond pleasant. The hotel is beautifully decorated. My room was a single King but it was the size of a suite. Huge rooms with beautiful furnishings. If I ever return to the Dallas area I will be sure to stay here again.More</t>
   </si>
   <si>
+    <t>happyfamilyTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r327212057-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -885,6 +969,9 @@
     <t>We had passed by this hotel several times and thought it looked nice, new and in a decent location if we ever needed a place to stay in that area. We booked online and needed a place to stay so that we could get to the hospital the next morning for an early morning surgery for our daughter in downtown Dallas. We liked the idea of a larger room, indoor pool and the price was fair. Upon arrival, we went to our room (we'd paid a little more for an executive suite) and as we did a room check before unpacking our things, we noticed hair on the toilet, in the toilet, in the sink, and a puddle of soap in the tub from the previous guest. The furniture was dusty, the walls had paint knocked off all over the place and the toilet paper holder was hanging by one screw from the wall. We immediately went back to the front desk and complained. They gave us another room and didn't even act like they cared that their housekeeping dept had done a poor job. The next room we got had hair in the sink in the bathroom and the floors had not been thoroughly vacuumed. At that point, we wanted to settle in for the night so we let it go and stayed there anyway. It was a mid-week stay so the main crowd there were business men and...We had passed by this hotel several times and thought it looked nice, new and in a decent location if we ever needed a place to stay in that area. We booked online and needed a place to stay so that we could get to the hospital the next morning for an early morning surgery for our daughter in downtown Dallas. We liked the idea of a larger room, indoor pool and the price was fair. Upon arrival, we went to our room (we'd paid a little more for an executive suite) and as we did a room check before unpacking our things, we noticed hair on the toilet, in the toilet, in the sink, and a puddle of soap in the tub from the previous guest. The furniture was dusty, the walls had paint knocked off all over the place and the toilet paper holder was hanging by one screw from the wall. We immediately went back to the front desk and complained. They gave us another room and didn't even act like they cared that their housekeeping dept had done a poor job. The next room we got had hair in the sink in the bathroom and the floors had not been thoroughly vacuumed. At that point, we wanted to settle in for the night so we let it go and stayed there anyway. It was a mid-week stay so the main crowd there were business men and construction workers. There were a lot of people sitting in the dining area drinking and watching television every time we came in and out of the hotel. Another issue we had, we spent probably 1 1/2 hours in the swimming pool and hot tub area. The pool and hot tub were both very clean and a comfortable temperature. The big problem we had in that area was the fact that they had the exterior door propped open facing the parking lot. Anyone could've come and gone without a room key. There was no security on the premises and it did not feel safe and secure with the doors open and access to the entire area. We had to leave at 4:30AM the next morning and when we checked out there was no one at the front desk or anywhere to be found. A note was posted on the desk saying they were away from the desk it was like no one was keeping watch over anything at all. Totally not what we are used to seeing when we stay at hotels. We made several trips to the car loading up things and never did see anyone in the process. The hotel is in a convenient location to lots of restaurants and shopping areas. Nice parking lot all around the place with convenient access to the service road and George Bush Turnpike. Overall, we are very picky when it comes to where we stay and we definitely didn't feel like this place met up to our expectations.More</t>
   </si>
   <si>
+    <t>Alejandro O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r324875182-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -906,6 +993,9 @@
     <t>The Holiday Inn at Garland is a pretty decent place for the price it has. The staff is not super friendly, but does the job just fine. I had a couple of AC issues to fix, the front desk sent someone fast, the technician was quiet but profficient, and the experience overall was not bad. The location is not bad, it's not far to downtown Dallas nor Plano.The room is fine. The bed is comfortable, the bathroom well equipped. The internet service is not good, honestly. It is free, but it's not fast nor reliable. Most of the times the 4G was way better than the LAN or WiFi.Overall, it was a good experience. Not the best hotel in the world, but it's defnitely worth its not-so-high price.More</t>
   </si>
   <si>
+    <t>SSSheri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r297738762-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1023,9 @@
     <t>This hotel is six years old and already quite shabby. Dings in the woodwork, scratched up paint, one elevator not functional. Service was fine, neither bad nor exemplary. The room was clean. Toilet was running when we arrived and never stopped. It was also freakishly low to the ground.. The color scheme of the room, I have to say, was hideous. Not at all restful. The mattress was very hard. Plentiful pillows. Coffee maker, microwave and fridge in the room. The stay was adequate but nothing more. We won't be back. Too many other options in the area. It just felt neglected and run down.More</t>
   </si>
   <si>
+    <t>dbaudrate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r296662997-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1038,9 @@
     <t>Newer hotel, modern decor, clean.  Great Staff.  Decent breakfast buffet. I stayed on the 5th floor on the backside.  Very quiet, Nice view over the subdivisions.I thought  I'd try the restaurant out. The food was ok.  There's not really any reason to eat there because there are much better places all around the hotel.The only issue I had was that the hot tub was out of order all week and the pool wasn't very clear... It didn't look very inviting.I'm scheduled to be back in the area in a couple weeks, and I've already made my  reservation to be back.</t>
   </si>
   <si>
+    <t>finis17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r293442445-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1059,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Baldy47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r292195738-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1077,9 @@
     <t>Recently-built full-service HI on a frontage road off G.Bush in northeast Garland. Well-designed rooms, courteous staff, and excellent beds/bedding.  Way above average temperature control in rooms. The real surprise here on my first visit was breakfast.  A buffet, hot, fresh, that included a large bowl of cut fruit. I typically skip meals in hotels from years of business travel, but for this I'll make an exception!</t>
   </si>
   <si>
+    <t>adrhodes81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r292078922-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1095,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Klnj1964</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r288661333-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1131,9 @@
     <t>The hotel was lovely!  Staff was great especially when I needed a cab at 5 am.  Décor was above a Holiday Inn level.  Would highly recommend it!  I had early check in and it went without a hitch. Also they recommended nice food service in the area.</t>
   </si>
   <si>
+    <t>Josh M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r280039150-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1149,9 @@
     <t>I travel a lot for work and the is the second time I got a great deal on this property through priceline.  The front desk staff is always pleasant and does not waste any time getting your checked in.  The lobby is clean, the property is clean and the rooms while nothing overly special about them are big, clean and comfy.  The beds are great and they tv has HDMI inputs so if you travel often you can easily hook up your own entertainment options.  Keep an eye out on priceline for a great rate.</t>
   </si>
   <si>
+    <t>manilapacman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r277882874-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1165,9 @@
   </si>
   <si>
     <t>I enjoyed my stay here. It's a very standard Holiday Inn- nothing great, nothing bad.The location is great- right along the freeway, with quick access to Plano and Richardson. It's set back from the highway, though, so noise was not a problem. Overall, I thought it was a quieter than average hotel, which I appreciated.Bed was very comfortable. Bathroom was clean. Decor was bland and unappealing. Lobby elevator was experiencing issues and was slow as molasses. Wi-Fi was good, though 2-step log-in is tedious.Staff were very friendly and welcoming. I would stay here again when I'm in the area.</t>
+  </si>
+  <si>
+    <t>Fisherman74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r275311731-Holiday_Inn_Garland-Garland_Texas.html</t>
@@ -1087,6 +1201,9 @@
 As far as the room, fairly clean. Not the best, though quite good, none the less. The biggest draw back to the room, is lack of lighting. They seriously need to put some better lights in these rooms, particularly with the darker color...We stayed here a couple months back and overall it was a fairly nice place, though it could have been better. If I am back in that area and need a place, I will consider it, if the rate is right, though will check around as there are several other hotels in the general area.First off, this place from outward appearances gives the impression of a Holiday Inn Express, though it isn't. This, I take it, is a newer regular Holiday Inn. I would just as soon as have the Express. Go figure, anyhow, as such they don't offer the little breakfast bar that most places in this range offer these days. Instead they have a small cafe, in which you can get a buffet, which does not have much more on it, than your average free or included breakfast bar typically has and the quality is about the same, passable for a free or included. Not of the quality that I would want to pay for. Fortunately, if you call ahead or talk to them at the front desk, you may get it included which we did. You might also get a touch better rate.As far as the room, fairly clean. Not the best, though quite good, none the less. The biggest draw back to the room, is lack of lighting. They seriously need to put some better lights in these rooms, particularly with the darker color scheme of the rooms. Just not a good combination.Fairly good location, with a few restaurants and shopping possibilities fairly nearby. A couple places to eat, within walking distance, though most will require transportation for practicality.More</t>
   </si>
   <si>
+    <t>Grace M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r273926950-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1222,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Kay Combs S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r273401843-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1243,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>C424</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r264051037-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1147,6 +1270,9 @@
     <t>Well first off I had reservations at this hotel for 6 days straight because I was in town for work. The hotel is new and pretty nice but the staff was terrible. There was a fire in the laundry room on Friday night and we had to evacuate, fortunatly for us the stairway dumped us out right next to the laundry room so it was a bit difficult to find an exit. Once outside we sat there for 2 hours without direction or anyone even checking on us or asking us if we needed anything. Once we were allowed into the lobby we were told we couldn't stay there that night and it was up to us to find another hotel (at 1230 in the morning). We were also told that we couldn't get our things and they would refund the night. It appeared that the staff did not really know what was going on and one older gentleman was rather rude when you would ask. The manager had not arrived yet either (2 hours after the crisis had started) We found a very nice Hampton Inn down the road (that I will stay at from now on) that did have rooms. The next morning when I went to get our things we were told that they decided to let people go back to their rooms after we had left. Once I got home I realized that the night had...Well first off I had reservations at this hotel for 6 days straight because I was in town for work. The hotel is new and pretty nice but the staff was terrible. There was a fire in the laundry room on Friday night and we had to evacuate, fortunatly for us the stairway dumped us out right next to the laundry room so it was a bit difficult to find an exit. Once outside we sat there for 2 hours without direction or anyone even checking on us or asking us if we needed anything. Once we were allowed into the lobby we were told we couldn't stay there that night and it was up to us to find another hotel (at 1230 in the morning). We were also told that we couldn't get our things and they would refund the night. It appeared that the staff did not really know what was going on and one older gentleman was rather rude when you would ask. The manager had not arrived yet either (2 hours after the crisis had started) We found a very nice Hampton Inn down the road (that I will stay at from now on) that did have rooms. The next morning when I went to get our things we were told that they decided to let people go back to their rooms after we had left. Once I got home I realized that the night had not been refunded and when we called we were told that we would have had to request the refund instead of it coming off automatically. We also tried to contact the General Manager and he was conveniently unavailable every time we tried. I stay at HI pretty frequently with work and this was some of the worst customer service I have experienced. Its unfortunate because it is a pretty nice hotel in a good location but I won't be staying here again.More</t>
   </si>
   <si>
+    <t>jen850</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r262755583-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1297,9 @@
     <t>Stayed for 2 nights, the staff was friendly and everything was ok.  The indoor pool area has very heavy chlorine smell, so you don't much want to hang out there too long.  We had a double, and the entry to the room was tight; if you were coming in, and the bathroom door was open, look out because you'll collide.  And don't open the closet door, because then there are three doors all colliding right there.  I'd stay there again if I needed to, but would look around for another option first... had no problems but nothing to rave about either - the very definition of average.More</t>
   </si>
   <si>
+    <t>sarahinitasca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r261556273-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1324,9 @@
     <t>I stay at hotels on a regular basis with my job. At 8pm they started vacuuming outside my room.  At 1st I thought a spill had occurred and it would stop momentarily, but nope. It just kept going and going. I called downstairs and they notified me that it is their policy to vacuum in the AM and PM. I told them that this is a ridiculous policy. I was fighting a horrible headache and didn't want to hear this loud roaring outside my room. I was assured they would call her to have her stop. However, it just kept going and going. I went out to the hall and confronted the very unprofessional employee who raised her voice to me and told me she wasn't quitting because it was her job. She proceeded to put her headphones back in and then she took a personal call then turned and started vacuuming down the hall away from me. I could not get her attention so I pulled on the cord and she had the audacity to tell me that I assaulted her, PLEASE!!!!!!!  I asked my coworkers on FB if their had ever occurred to them and nope.More</t>
   </si>
   <si>
+    <t>cperciva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r261339895-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1345,9 @@
     <t>My family came into town for a funeral and stayed at this hotel. The first issue was when their rooms keys did not work and requires assistance each time to get into their room. While visiting the fire alarm goes off and we decide to evacuate the building. The stairwell was full of smoke and the first floor where we were was as well. Apparently there was a fire in the laundry room. We stood outside the hotel for hours without any communication from the hotel as to what was going on, if we had to find a new hotel, or if we could go back in. There were children who only had their pajamas on and who appeared cold. HOURS go by and my family was eventually allowed to return to their smokey smelling hotel room. There were concerns about CO2 levels that they were not advised of that night! Where was the management?!? I just can't believe how poorly this hotel handled the situation and I wouldn't advise staying there.More</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r260108109-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1366,9 @@
     <t>We stayed here for two nights and were happy with this hotel.  The front desk staff was always nice and professional.  The restraint had decent food at reasonable prices.  We wanted a ground floor room, but this hotel doesn't not have any rooms on the ground level.  We received a room on the 2nd floor and were asked if we want near the elevators, which we declined, but after walking down a very long hallway, we should've taken that offer.  The king suite was nice and a good separation between the sitting area and the bed area, with two tv's.  The bed was comfortable and the linens were clean.  According to our child, the pull mattress on the pull out coach was too thin and had stains on it, which we covered with a sheet.   The breakfast was very good and the service was excellent, we just wish it wasn't an extra charge.  The hotel was easy to find and it was easy to get to shopping on 75.  We'll stay here again.More</t>
   </si>
   <si>
+    <t>Beyondgreen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r258395153-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1387,9 @@
     <t>I learned something new when booking rooms at this hotel. I emailed them with the specifics I needed for my rooms. I was traveling with four young children and needed to connecting rooms; normally hotels will not guarantee connecting rooms. However when you email them you actually get to a manager of some sort who is able to guarantee the rooms as well as give you a cheaper rate. (You can call and ask to speak to Ryan). So we got two connecting rooms for $99 each and he included  the breakfast buffet. On a sidenote, the breakfast buffet is not continental but rather a full, varied, tasty spread. We chose to stay in Garland because our friends live there. It was a good decision for us because of the indoor pool. We went during the snow storm and the city was shut down for two days. We were able to still have fun and not go crazy. Without traffic it is only a 25 minute drive downtown and about 40 minutes with traffic. If the weather is warm, there are a number of attractions in the area.Overall we were very happy with the hotel. It is not a full service hotel so you will have to take your own bags up to your room. All the rooms have fridges as well as microwaves and for the most part I found them clean and comfortable.More</t>
   </si>
   <si>
+    <t>Dewayne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r256087642-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1408,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>A1b2c3_h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r254203203-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1435,9 @@
     <t>Nothing beats calling in the afternoon to confirm your room for a late check in and being told not to worry it wasn't a problem only to arrive to find out they gave your room away. On top of that there wasn't even a manager working  to speak with about it. I will NOT be returning. More</t>
   </si>
   <si>
+    <t>JanetandLarryTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r253848926-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1453,9 @@
     <t>Very nice experience!  Rooms were clean, nicely decorated, and relaxing. The hotel staff were very friendly and accommodating! I will be traveling here several times this year on business and plan to stay here every time!</t>
   </si>
   <si>
+    <t>Clayb1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r252627779-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1471,9 @@
     <t>This place is like a second home to me with my work! Love the cleanliness of the rooms. The staff is very nice,attentive, and respectable. Great food and bar also. The indoor pool is also a plus for the cold winter months! Love this place!</t>
   </si>
   <si>
+    <t>Julie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r246066611-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1495,9 @@
     <t>My husband, son and I stayed in a feature room at Thanksgiving and were definitely not disappointed. With the bedroom separated from the sitting room by the kitchen/bath, it was also like two rooms, my son having his own private space. The sleeper sofa was comfortable, according to him, our bed was rally comfortable as well. The grounds, hotel and rooms were all very clean, the staff was polite, professional and helpful. The linens for the sleeper sofa were all ready and waiting in a nice, plastic case... didn't have to ask for anything (as I've had to with other hotels)!!! Having a close, clean and comfy place to stay while visiting the in-laws made this a perfect Thanksgiving. We will definitely be staying here again!!!More</t>
   </si>
   <si>
+    <t>Terri M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r242500117-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1528,9 @@
     <t>If I was in this area or close to it,I would pick this hotel.I am always leery of pillows in hotels and bring my own pillow cases but fould the cleanest pillows of any hotel I have spent a night in and my husband and I have travelled a lot and stayed in many hotels.My compliments to this hotel.Great staff in the front desk as well as the coffee shop.No problems with our room at all.We appreciate the free wifi.They had USA today available.Good hot breakfast and a very nice person who was most helpful to see to our breakfast needs.I have no hesitation recommending this hotel.</t>
   </si>
   <si>
+    <t>AmeliaAirheart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r235166264-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1550,9 @@
   </si>
   <si>
     <t>This was the last hotel we stayed in on our road trip from California to Texas. One thing I especially liked was that there is a separate light right above the bathtub, so it's really nice and bright when you shower. We got a the lowest rate of $124 for 1 night. I asked if that included breakfast--I should have been told it did not, without having to ask. For only $3 more, we were able to include breakfast for 2. The cost of the breakfast, posted in the restaurant, is $8.95, so we got a good deal on that. There is a bar in the dining room, that even has a blender. :-)The 5-floor hotel is right off the highway, with lots of restaurants nearby. Friendly staff and free wifi are always a plus, especially since the computer in the business center was out of order.More</t>
+  </si>
+  <si>
+    <t>MunichEricJ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r228089464-Holiday_Inn_Garland-Garland_Texas.html</t>
@@ -1424,6 +1586,9 @@
 I’m on the road worldwide more than 60% of the time, and there are few “firsts” left for me.  But this was the first time ever that I have stayed at a hotel for three nights and found no newspaper of any kind for the entire duration of the stay.  The staff had no idea that there were no newspapers and acted as though they usually have them (“Oh, really?  No newspapers?”) But they could not say anything about when they expected to get any, when they usually arrive, or anything at all.  After asking several times I concluded that this Holiday Inn franchisee simply does not want to spend the money, or they think that their guests can’t read, or...The hotel is fairly new and in excellent condition.  Staff are very friendly.  That can explain some of the favorable reviews for this property – but in sum I do not agree. The room was very large and had a separate sitting area, a good start.  Everything was clean and well- maintained, sure enough.  On the other hand, the color of the room was an odd shade of green which I didn’t care for, and the lighting was a starkly cold color temperature.  The sitting area lighting was very dim, making that area appear downright gloomy.  If I had had company I would have gone across 190 to the Wal Mart and bought some candles or a real lamp.I’m on the road worldwide more than 60% of the time, and there are few “firsts” left for me.  But this was the first time ever that I have stayed at a hotel for three nights and found no newspaper of any kind for the entire duration of the stay.  The staff had no idea that there were no newspapers and acted as though they usually have them (“Oh, really?  No newspapers?”) But they could not say anything about when they expected to get any, when they usually arrive, or anything at all.  After asking several times I concluded that this Holiday Inn franchisee simply does not want to spend the money, or they think that their guests can’t read, or whatever - so they just never have them -- and the staff did not want to own up to the situation.  I won’t go back for that reason alone, but on top of that the room was a fair bit more expensive (more than 50% higher) than their competition across the toll road.The breakfast buffet was not expensive ($8.95) but there was not much there – coffee, scrambled eggs, bacon, sausage, biscuits and gravy, some mixed fresh fruit in a bowl and waffles.  That’s pretty much it.  No, I did not forget to include the OJ.  Orange juice was an “extra,” available for $2 per glass upon request (not fresh- squeezed.)  Since when is any kind of juice an option at a breakfast buffet?  Another “first” on the wrong side of the balance sheet.The one true highlight, the friendly staff, cannot make up for these shortfalls.  I won’t be back there.More</t>
   </si>
   <si>
+    <t>Beatriz G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r226472668-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1607,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Mandy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r221665579-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1460,6 +1628,9 @@
     <t>Very impressed with the quality of this hotel. Soft comfortable beds with large pillows. Friendly front desk with Phil who made our stay perfect. Great breakfast, steak and eggs made large and fresh served by Ana made my mornings. Room service was fast and efficient. They serve cookies and appetizers in the evening. The rooms are clean and housekeeping comes daily to meet your needs. Very quiet hotel, could not hear any noise from other rooms even though the hotel was full during our stay. They have a fridge microwave and coffee maker in each room. They have an indoor pool and hot tub but I did not have time to enjoy them. The gym had newer working equipment and was kept nice.More</t>
   </si>
   <si>
+    <t>Airforcewife37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r221473867-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1646,9 @@
     <t>We stayed for one night at this place, it was so nice I wanted to stay more night, but we had more traveling to get done had to move on.  Everything about this hotel was great. The staff very friendly, wifi worked great, room was nice and clean and beds were comfortable.  Nothing to complain about here.</t>
   </si>
   <si>
+    <t>Wardsntx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r219844889-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1499,6 +1673,9 @@
     <t>Booked this hotel while traveling. Overall, the hotel was clean, rooms were good size, including a coffee maker, microwave and mini fridge.  I ate a late dinner down in the cafe, food quality was good and service staff was friendly. Nothing special, but a nice place to lay my head after 9 hours of driving. Free Wi-fi, however I found it to be slow and sluggish.More</t>
   </si>
   <si>
+    <t>Alan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r219319981-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1517,6 +1694,9 @@
     <t>When our ac went out needed to find a nice place to stay. This hotel is fairly new and is a great hotel. Large rooms and a great nights sleep  breakfast was a nice addition as was the service  will recommend to friends and family if visiting and need extra space. More</t>
   </si>
   <si>
+    <t>dnelson100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r217973365-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1715,9 @@
     <t>I reserved the room for a responsible 89.00 a night and found the room just as good if not better than most that start in that range. The room was comfortable and bed was too, but I wouldn't give up my own mattress for theirs. The pool was nice to use at the end of the day. The place is quite a distance from Dallas, but the highways were nice and open for the most part making it easy to get to our destination. The water pressure in the shower is weak and the coffee pot is above the microwave and high for most people--just in a weird location. Overall, not disappointed--enjoyed the accommodations for the weekend. More</t>
   </si>
   <si>
+    <t>BarbaraE3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r215004313-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1727,9 @@
     <t>July 12, 2014</t>
   </si>
   <si>
+    <t>bckelso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r212514776-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1565,6 +1751,9 @@
     <t>Very clean hotel. Staff was very gracious and helpful. We had a large group and everything they did for us they did with a smile. Lounge/bar area was nice. Rooms were comfortable and clean. Only thing I didn't like was an indoor pool but that's just personal and I understand why it's indoors. Would definitely recommend this hotel. More</t>
   </si>
   <si>
+    <t>KatsMeow422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r197622784-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1781,9 @@
     <t>I booked a room with two queen beds using Priceline.com for a girls' night with two of my best friends. I got a great rate and prepaid for the room. When I got to the hotel, I stood at the reservation desk alone for about two minutes before either one of the clerks (a young woman and an older man) noticed me. Once the older man offered to help me, I told him I was checking in and gave him my last name. He began tapping several keys on the computer but said nothing -- in fact, he wouldn't even look at me. Finally he mumbled that they didn't have any more two-queen rooms, and that they were overbooked and every room was full. I started to say, "How is that my problem?" but he said that they could put me in a junior king suite, with a king bed and pull-out couch. This was not ideal, but I told him I would take it as long as they weren't going to charge me any additional money. I was thoroughly ticked off, though, because my thinking is that since I prepaid for a two-queen, a two-queen should have been saved for me because IT'S ALREADY BEEN PAID FOR. Anyway, he gets me the room keys and tells me my room number (all of this time he is mumbling and barely looking at me) and I go out to get my...I booked a room with two queen beds using Priceline.com for a girls' night with two of my best friends. I got a great rate and prepaid for the room. When I got to the hotel, I stood at the reservation desk alone for about two minutes before either one of the clerks (a young woman and an older man) noticed me. Once the older man offered to help me, I told him I was checking in and gave him my last name. He began tapping several keys on the computer but said nothing -- in fact, he wouldn't even look at me. Finally he mumbled that they didn't have any more two-queen rooms, and that they were overbooked and every room was full. I started to say, "How is that my problem?" but he said that they could put me in a junior king suite, with a king bed and pull-out couch. This was not ideal, but I told him I would take it as long as they weren't going to charge me any additional money. I was thoroughly ticked off, though, because my thinking is that since I prepaid for a two-queen, a two-queen should have been saved for me because IT'S ALREADY BEEN PAID FOR. Anyway, he gets me the room keys and tells me my room number (all of this time he is mumbling and barely looking at me) and I go out to get my luggage. Meanwhile, one of my friends shows up and we grab a cart and load it with our stuff. As we're wheeling it back into the lobby, the same man looks up and says, "Ma'am, have you been up to that room yet?" I say no, and he says, "Well, it's already occupied. And we don't have more rooms." I abandon the cart, walk up to the desk and say, "Are you KIDDING ME?!" He says something about going to a different Holiday Inn and then I was livid and said, "Absolutely not. That's won't work at all," because the one he mentioned was at least 30 minutes away! He can obviously tell I'm about to lose it, so he "magically" locates another junior king suite and starts to get me the keys for that room, and I say, "You're going to have to work hard to get me back. I am very unhappy with you right now." So he pulls out a little card and comps our breakfast buffet for the next morning. Whatever. I just wanted to not look at this guy anymore, so I take the room keys and me and my friends (the third of which has now shown up) go up to the room, which we are grateful to find is unoccupied.I wouldn't have been so angry at the front desk clerk if he had been a bit more conciliatory and apologetic. He acted as though he just couldn't wait for me to walk away. I was not using foul language or yelling; my voice was raised a little, just like anyone when they are angry. But he did not give me proper customer service, which would have  been to offer a sincere apology and at least look at me and smile. The next morning at breakfast, we arrived with a good 30-40 minutes to spare and yet many of the dishes on the hot bar were depleted. The server helping our table (bringing coffee, taking dirty plates) was overwhelmed, helping a roomful of people all by herself. We asked her for salt and pepper and she never brought it, and once we showed her the card that said  our breakfasts were comped, she disappeared and we had to flag her down if we needed something. The walls in our room were a bright, baby poop green that is not a relaxing color at all. And the refrigerator in our room barely kept anything cold. The pool was nicely heated and the hot tub was relaxing. Those were about the only two really good things about this hotel. I will not stay there again, nor will I stay in any Holiday Inn if this is the kind of customer service they offer.More</t>
   </si>
   <si>
+    <t>texasshopr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r197009553-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1610,6 +1802,9 @@
     <t>I love Holiday Inn beds and we've stayed here before so we chose this one again.  There was a basketball tournament in town so we did not get the queen beds we requested but were given a king.  We checked in late (almost midnight) so were hoping to sleep in the next morning but no such luck.  The noise started at 7:45 am and didn't stop until 11:00 am.  It sounded like housekeeping noise but was very loud and constant during that time.  We did leave the room late and expected to miss housekeeping but they did come clean our room (which was a nice surprise).  The second morning was better.  We did ask for a late check out due to the time change and little sleep the night before.  Housekeeping told me that if we left the room later than 1 hour after check out that we would be charged 1/2 room rate. No problem, we were out in time.  The room was clean and everything was in working order.  We did not eat breakfast although I was told it was free.  The parking lot was dark and extremely full.  Probably will not stay here again due to the early morning noise and the dark parking lot.  If that doesn't bother you, it's a great place to stay from a comfort prospective.  Close to several restaurants (within walking distance) and very easy to find.More</t>
   </si>
   <si>
+    <t>_samlbkgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r196586856-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1628,6 +1823,9 @@
     <t>My family and I stayed at the Holliday Inn the weekend of December 9th..Our stay was great overall, but the breakfast is not free but that's not a deal breaker..Anyway overall the hotel is very nice/clean! But the only downside is the rooms are small More</t>
   </si>
   <si>
+    <t>rogerfranklin340</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r186163722-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1853,9 @@
     <t>Easy to get to. Very quiet room and friendly staff. Quick check in and out. Great shower and towels. Nice breakfast buffet. Bed and pillows very comfy. Nice selection of channels on the TV. Room and hotel very clean.More</t>
   </si>
   <si>
+    <t>safetytraveler1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r185251018-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1673,6 +1874,9 @@
     <t>This is a great place to stay In the Garland Tx area. My first time on the area for business and aside from the traffic it was an excellent stay mostly due to the HI and it's staff. Krishna greeted me with a huge smile which was needed after a 10 hour drive. She made my check in quick and easy and helped me navigate my way around the area to get to my location and back.Super comfortable bed, and even though you are near the PGB Freeway, it has to be the quietest room I have ever had. The room was much larger than I expected with plenty of room to spread out and work and exceptionally clean. I would recommend this location to anyone going to the area, and will stay again when I return. This is definitely a "10" location.More</t>
   </si>
   <si>
+    <t>Ted M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r184834820-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1901,9 @@
     <t>I've been coming here on a regular basis for just over 3 years, exclusively for business.  Location, ease of access off the PGB Tollway, very good accommodations and exceptionally friendly staff makes this place a winner.  The property is a newer Holiday Inn; the beds are definitely comfortable, great towels, etc... and the COMPLIMENTARY buffet breakfast is excellent.  Eggs, hash browns, sausage/ bacon, biscuits &amp; gravy, yogurt, fruit, waffles, oatmeal, cereal... darn near everything, every day (except Sunday, I believe).  As you look at the total sum when considering a hotel, the most important elements need to be there.  While the work out room is small it definitely needs upkeep. The indoor pool, I have not tried.  However great staff; (Krishna, Lenore, and Missy just to name a few) are exceptionally helpful and friendly!  They go beyond the call of duty as I see with ALL guests. Comfortable rooms &amp; beds, free Wi-Fi, CONSISTENCY each stay - and the buffet is a worthy effort.Not much for negatives here (workout room needs help), but I'd offer enough stays to suggest that the consistency and rooms are excellent for a Holiday Inn.More</t>
   </si>
   <si>
+    <t>bikeman4147</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r181930901-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +1931,9 @@
     <t>We ended up here because another hotel had overbooked.  Turned a bad day into a great lodging experience.  Staff was very helpful and immediately there to help.  Room was immaculate and beds/pillows were some of the best I have ever slept on.  The large soft towels were super nice and everything else was above standards right down to the special "fold" on the toilet paper.  I have paid $400 per night for a similar room elsewhere so $101.52 (2 person occupancy) was a steal.More</t>
   </si>
   <si>
+    <t>wsenjoyinglife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r174148660-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1751,6 +1961,9 @@
     <t>You know what to expect at Holiday Inn, as usual it was clean the staff was pleasant and helpful.What we didn't expect was no breakfast included.  There is a cafe on sight so you can purchase meals.  Next the air conditioning was erratic 59 degrees at 10 p.m. 88 degrees at 3 a.m..  We were able to get the air back on and get back to sleep.  I did inform the staff and they reacted properly to get it investigated.  Bed was not as comfortable as some but certainly not a deal breaker.  Next time I would probably opt for the Hyatt across the street where my children were staying.More</t>
   </si>
   <si>
+    <t>Patricia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r171535635-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1775,6 +1988,9 @@
     <t>I recently booked two rooms.  First room.  Was great, clean, cool, comfortable. The adjoining room that my daughter and grandchildren stayed in had problems. The air conditioner was so loud my daughter had to turn it up in the middle of the night so it would go off and stay off so they could sleep. Also the t.v. did not work. They sent someone up to "fix" it but no luck.  Theae things were. Reported at the time as well as at check out. I hve been to many Holiday Inns in the past and never had these problems. Think we should have gotten something off the bill to have  a room where children are staying with no tv.More</t>
   </si>
   <si>
+    <t>STEPHEN H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r168718387-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2018,9 @@
     <t>We stay for 2 nights at this hotel which is located right on George W. Bush Freeway.  Right next door is the following: Chuck-E-Cheese, Olive Garden, and 2 or 3 more restaurants.  On the other side of the freeway about a 5 minute drive is new IHOP, Super Target, Super Wal-Mart, CFA, Sonic, Cheddars, Starbucks, Smoothie King, strip shopping center, etc.  There is a very nice shopping center within a 5-10 minute drive called FIREWHEEL CENTER (you can google &amp; see the stores).  From the Freeway you are within a 10-15 minute drive of Plano, 20 minutes to Frisco/Allen.  It's very convenient &amp; the hotel is nice &amp; clean.   My only 2 complaints are the following:  the hotel snack shop was very poorly stocked.  They had a list of drinks/snacks available &amp; the 2 days &amp; 3rd day leaving we were present, it was never re-stocked.  It probably had 1/2 of what the list said they were suppose to have.  I have stayed at lesser quality hotels with much better options.  Also, if you go the Wal-Mart &amp; Target &amp; Starbucks on the other side of the freeway, it's a little inconvenient to get back to the hotel.  Otherwise, very convenient &amp; nice hotel.  You also had to pay for breakfast so we didn't choose to eat there (not big breakfast eaters) &amp; just went to Starbucks.More</t>
   </si>
   <si>
+    <t>TexasTraveler78641</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r131997070-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1820,6 +2039,9 @@
     <t>A little larger than a Holiday Inn Express, but not much different.  No free breakfast here and the room we had (King bed) was not any better than we have had at the express brand.  Checking in was our only problem as the one clerk behind the desk was entering data on his computer and never looked at me, he just said "checking in?".  I replied yes I have a reservation and handed him my Priority Club card.  He took it from me and still not looking at me continued to enter data.  Never looking at my card he asked my name and when I replied only then did he stop entering data and looked at me.  Very cold and not a welcome came from him.More</t>
   </si>
   <si>
+    <t>BamaBarcoder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r131993779-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2066,9 @@
     <t>Looks new. Apealling inside and out. Clean and comfortable. It took me almost 20 minutes to get checked in. The poor clerk was doing his best but needed help badly. I decided to eat breakfast there and that was the worst part. Really lousy quality and selection and I paid $10 for it. I've had much better free breakfasts. I can recommend the hotel but plan to eat elsewhere.More</t>
   </si>
   <si>
+    <t>TNTechie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r131884835-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1859,6 +2084,9 @@
     <t>This is a fairly new hotel.  The rooms are large, you have a sitting area with a loveseat, chair and flat screen TV, Kitchen area with small sink, refrigerator, and microwave, then you have a bedroom area with desk and flat screen tv.  There is a large indoor pool and a typical fitness center.</t>
   </si>
   <si>
+    <t>Kimberly S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r130825285-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2108,9 @@
     <t>I highly recommend this property and will definitely be back!! Everything from the property itself to housekeeping all the way up to the owner just shines! When we arrived I had come down with a bug so already having requested double beds because of our 2 small children my husband asked for a fold out sofa trying to give them as little exposure to me as possible. The manager told my husband that he could do better then that and provided me with my own room at NO CHARGE directly across the hall from my family! While my husband played super dad for the next 3 days, I recouped and was catered to by the most kind and friendly house-keeping and room-service that I have ever experience! Holiday Inn in Garland has renewed my faith in customer service. Thank you so very much for such a wonderful experience!More</t>
   </si>
   <si>
+    <t>Darlenes3834</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r129166134-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1898,6 +2129,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Andrea887710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r126889495-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1925,6 +2159,9 @@
     <t>I stayed here last year for 4 days, on a business trip. Found my sheets to be slightly stained, didn't think much of it, called housekeeping and the next day they were clean. On the first night back home, I started itching all over, still didn't think anything of it, woke up that next morning covered in red bites, the itching was beyond. Talk about embarassing! Realizing I might have had a bedbug problem, called an exterminator and he confirmed I indeed had contracted bedbugs, and they were in my luggage. Needless to say after 3 attempts of this exterminator spraying to rid me of my problem $350, which only made my situation worse somehow, I had to call an EXPENSIVE heat treatment company that came in and finally saved my sanity, $1,500 later. I had to replace my bed, throw away some furniture, clothes. NIGHTMARE for 3 months! And the hotel was notified and did nothing to reimburse me or admit they had a bedbug problem!!!!!!!More</t>
   </si>
   <si>
+    <t>RBfromCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r126323866-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1952,6 +2189,9 @@
     <t>I recently stayed at this property for business in Garland. It was my first time here. This hotel is a little over a year old so it looks new and feels new. It certainly has a different appearance then most Holiday Inns. I had checked in late and there was only the front desk clerk around. He was professional and attended to my check-in with ease and speed. The room looked clean and obviously had up to date furnishings. I left before breakfast so no comments there, maybe next time! Seems to be a good start for this place.More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r125423798-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1973,6 +2213,9 @@
     <t>My wife and I stayed here again. The first time we were here, it was great. I think because it was new. This time, it appears as its going downhill fast. It was much more dirty. The room had one bar of soap and needed a better cleaning after the last guest. Still no movie stations, nor can you purchase a movie as there is no online movie options. The cable is very limited. The hottub was low on water and cold for the whole time we were there. Being low on water, it would not function right. There was trash around the property that needed cleaned up. May just be a case of not enough help. Hate to see it. Hope it gets better.More</t>
   </si>
   <si>
+    <t>Betsy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r124925118-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -1997,6 +2240,9 @@
     <t>This is the perfect place to book your next stay.  The entire staff was warm, welcoming, kind, thoughtful, and professional.  We had several rooms, in which each room was refreshing, very clean, and well decorated.  My family and I loved the color scheme in our rooms and through out the entire hotel.  They had hot coffee in the lobby area and fresh baked cookies in the afternoon.  We had a large party staying there and congregating in the lobby downstairs was nice.  We ate breakfast in the hotel restaurant each morning and the food and service was great.  My family and I cannot say enough good things about this place.  Thank you Holiday Inn of Garland for the accommodations!More</t>
   </si>
   <si>
+    <t>queeni814</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r120212251-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -2048,6 +2294,9 @@
     <t>My wife and I stayed here for 2 nights. We were very surprised and delighted. The rooms were spacious, clean, and well decorated. The beds were on the same comfort level as the Westin Heavenly beds. Fast free wireless. Microwave and frig. The room was very quiet. Couldnt here other people. Staff was very helpful and polite. Adequate fitness room. A nice touch also was a free washer and dryer in the room with the ice and soda machine. Bar and restaurant looked clean and nice tho we didnt use them. We were impressed with the indoor pool and hottub. We used this area allot. The only con I can talk about was there was no dvd player, no movie channels, and no pay movies.More</t>
   </si>
   <si>
+    <t>Awky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r118478391-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -2072,6 +2321,9 @@
     <t>Everything from the price, customer service, breakfast buffet, lounge area, indoor swimming pool was fantastic!!!!  Great location with both shopping and restaurants nearby!!!More</t>
   </si>
   <si>
+    <t>johnchavez45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r116269780-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -2093,6 +2345,9 @@
     <t>Room was nice and very clean. Great location for the surrounding area. Would recommend this hotel to anyone. Great ribs and beer at the bar.More</t>
   </si>
   <si>
+    <t>NZXG02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r115496629-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -2111,6 +2366,9 @@
     <t>Thanks for the the great service and the nice rooms.  We are a traveling softball team and we were all very please with all of the rooms but, most of all the service staff from the front desk, food servers to housekeeping.  You can't ask for a better place the this one.  Thanks to all of you!!!!More</t>
   </si>
   <si>
+    <t>alby31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r105342639-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -2129,6 +2387,9 @@
     <t>Rooms were spacious and comfortable,food was of high standard and staff were pleasant and helpful,we even had a free shuttle service to where ever we wanted to go within 15km....More</t>
   </si>
   <si>
+    <t>faceleg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r96355013-Holiday_Inn_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -2148,6 +2409,9 @@
   </si>
   <si>
     <t>I work for AAA And to show off their new hotel the sales manager gave us some free weekend stays, so I decided to take my partner for Valentine's Day. Very nice hotel. The room was spacious, clean, and open so we didn't feel cramped. They could use some more drawers for storage though. The bed was nice, but a little too firm for me. They also gave you an option for the pillows. When we got in the room the pillows had lables letting you know which were firm and which were soft. The bathroom was nice too, but I did feel a little cramped in there. The breakfast buffet was pretty good. We got there around 8am and there weren't many people there, and plenty of food left. They have a make your own waffle iron, but they don't let you make it on your own for liability reasons, lol. All the staff we interacted with were very nice and helpful. Overall, a nice hotel for business or a quick getaway, close to plenty of options for food and entertainment!More</t>
+  </si>
+  <si>
+    <t>hardiharhar_10</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d1657884-r90165342-Holiday_Inn_Garland-Garland_Texas.html</t>
@@ -2675,43 +2939,47 @@
       <c r="A2" t="n">
         <v>59840</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>13517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2729,56 +2997,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59840</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2790,56 +3062,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59840</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>69378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2851,56 +3127,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59840</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>156224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2912,56 +3192,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59840</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>20954</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2977,56 +3261,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59840</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2376</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3038,56 +3326,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59840</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>156225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3099,56 +3391,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59840</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>156226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3160,56 +3456,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59840</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3225,56 +3525,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59840</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3290,56 +3594,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59840</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>39340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3351,56 +3659,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59840</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>156229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3418,56 +3730,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59840</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3485,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59840</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3552,56 +3872,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59840</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3613,56 +3937,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59840</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156233</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3680,56 +4008,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59840</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>33682</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3741,56 +4073,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59840</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>40610</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3806,56 +4142,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59840</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156234</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3871,56 +4211,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59840</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3932,56 +4276,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59840</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3993,56 +4341,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59840</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156237</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4060,38 +4412,42 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59840</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>6707</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s"/>
       <c r="K24" t="s"/>
@@ -4108,51 +4464,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59840</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>6510</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4164,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="X25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
@@ -4183,37 +4540,37 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4231,56 +4588,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59840</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156238</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4296,56 +4657,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59840</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4363,56 +4728,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59840</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156240</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" t="s">
+        <v>300</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>272</v>
       </c>
-      <c r="L29" t="s">
-        <v>273</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>248</v>
-      </c>
       <c r="O29" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4430,56 +4799,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="X29" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59840</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132771</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4495,56 +4868,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="X30" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59840</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156241</v>
+      </c>
+      <c r="C31" t="s">
+        <v>315</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4562,56 +4939,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59840</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>59540</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4629,56 +5010,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59840</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156242</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4692,50 +5077,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59840</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>338</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4759,50 +5148,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59840</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>156244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4822,50 +5215,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59840</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156245</v>
+      </c>
+      <c r="C36" t="s">
+        <v>351</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4889,50 +5286,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59840</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4946,7 +5347,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38">
@@ -4959,37 +5360,37 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5009,50 +5410,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59840</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3640</v>
+      </c>
+      <c r="C39" t="s">
+        <v>369</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5070,50 +5475,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59840</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5133,50 +5542,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59840</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>381</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="J41" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K41" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5194,56 +5607,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="X41" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="Y41" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59840</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>39420</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5257,50 +5674,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59840</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5320,50 +5741,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59840</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156250</v>
+      </c>
+      <c r="C44" t="s">
+        <v>405</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5379,56 +5804,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="X44" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="Y44" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59840</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156251</v>
+      </c>
+      <c r="C45" t="s">
+        <v>414</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J45" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5444,56 +5873,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="X45" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="Y45" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59840</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156252</v>
+      </c>
+      <c r="C46" t="s">
+        <v>423</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5509,56 +5942,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="X46" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="Y46" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59840</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156253</v>
+      </c>
+      <c r="C47" t="s">
+        <v>432</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="J47" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="K47" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="L47" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5576,56 +6013,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="X47" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="Y47" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59840</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="J48" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="K48" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5645,41 +6086,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59840</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156254</v>
+      </c>
+      <c r="C49" t="s">
+        <v>446</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="J49" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="K49" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="L49" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5698,50 +6143,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59840</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156255</v>
+      </c>
+      <c r="C50" t="s">
+        <v>453</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="J50" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="L50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5755,41 +6204,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59840</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156256</v>
+      </c>
+      <c r="C51" t="s">
+        <v>460</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="J51" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="K51" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -5816,47 +6269,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="X51" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="Y51" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59840</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>469</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="J52" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K52" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L52" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5885,41 +6342,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59840</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156258</v>
+      </c>
+      <c r="C53" t="s">
+        <v>475</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="J53" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="K53" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="L53" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5948,50 +6409,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59840</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>7474</v>
+      </c>
+      <c r="C54" t="s">
+        <v>481</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="J54" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="K54" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="L54" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6009,50 +6474,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59840</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>35617</v>
+      </c>
+      <c r="C55" t="s">
+        <v>489</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="J55" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="K55" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6070,7 +6539,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
@@ -6083,37 +6552,37 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="J56" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K56" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L56" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="O56" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6131,50 +6600,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59840</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156259</v>
+      </c>
+      <c r="C57" t="s">
+        <v>500</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="J57" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="K57" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6192,50 +6665,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59840</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>156260</v>
+      </c>
+      <c r="C58" t="s">
+        <v>508</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="J58" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="K58" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="L58" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6253,56 +6730,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="X58" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59840</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156261</v>
+      </c>
+      <c r="C59" t="s">
+        <v>518</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="J59" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="K59" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="L59" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="O59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6322,50 +6803,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59840</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>57053</v>
+      </c>
+      <c r="C60" t="s">
+        <v>525</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="J60" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="K60" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="L60" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6383,50 +6868,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59840</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>156262</v>
+      </c>
+      <c r="C61" t="s">
+        <v>532</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="J61" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="K61" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="L61" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6446,50 +6935,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59840</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>156263</v>
+      </c>
+      <c r="C62" t="s">
+        <v>538</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="J62" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="K62" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="L62" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6507,47 +7000,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="X62" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="Y62" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59840</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>12608</v>
+      </c>
+      <c r="C63" t="s">
+        <v>547</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="J63" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="K63" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="L63" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6564,47 +7061,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="X63" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="Y63" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59840</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>156264</v>
+      </c>
+      <c r="C64" t="s">
+        <v>554</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="J64" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="K64" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="L64" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6631,41 +7132,45 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="X64" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="Y64" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59840</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>156265</v>
+      </c>
+      <c r="C65" t="s">
+        <v>561</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="J65" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6681,51 +7186,52 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59840</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>156266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>565</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="J66" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="K66" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6737,56 +7243,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="X66" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="Y66" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59840</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>156267</v>
+      </c>
+      <c r="C67" t="s">
+        <v>573</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="O67" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6808,56 +7318,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="X67" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="Y67" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59840</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125755</v>
+      </c>
+      <c r="C68" t="s">
+        <v>583</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="J68" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="K68" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="L68" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6879,47 +7393,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="X68" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="Y68" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59840</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>156268</v>
+      </c>
+      <c r="C69" t="s">
+        <v>590</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="J69" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="K69" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="L69" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
@@ -6936,56 +7454,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="X69" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="Y69" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59840</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>156269</v>
+      </c>
+      <c r="C70" t="s">
+        <v>597</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="J70" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="K70" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="L70" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7007,56 +7529,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="X70" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="Y70" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59840</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>156270</v>
+      </c>
+      <c r="C71" t="s">
+        <v>607</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="J71" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="K71" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="L71" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7078,56 +7604,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="X71" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="Y71" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59840</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C72" t="s">
+        <v>614</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="J72" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="K72" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="L72" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7149,56 +7679,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="X72" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="Y72" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59840</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>156271</v>
+      </c>
+      <c r="C73" t="s">
+        <v>623</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="J73" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="K73" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="L73" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7220,56 +7754,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="X73" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="Y73" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59840</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>156272</v>
+      </c>
+      <c r="C74" t="s">
+        <v>633</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="J74" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="K74" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="L74" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="O74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7291,56 +7829,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="X74" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="Y74" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59840</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>643</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="J75" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="K75" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="L75" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7362,56 +7904,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="X75" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="Y75" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59840</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>123603</v>
+      </c>
+      <c r="C76" t="s">
+        <v>652</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="J76" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="K76" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="L76" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7433,47 +7979,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="X76" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="Y76" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59840</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>156273</v>
+      </c>
+      <c r="C77" t="s">
+        <v>662</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="J77" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="K77" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="L77" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -7502,50 +8052,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>59840</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>156274</v>
+      </c>
+      <c r="C78" t="s">
+        <v>669</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="J78" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="K78" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="L78" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7567,56 +8121,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="X78" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="Y78" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59840</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>156275</v>
+      </c>
+      <c r="C79" t="s">
+        <v>678</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="J79" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="K79" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="L79" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7640,50 +8198,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>59840</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>17712</v>
+      </c>
+      <c r="C80" t="s">
+        <v>684</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="J80" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="K80" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="L80" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="O80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7707,50 +8269,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59840</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>156276</v>
+      </c>
+      <c r="C81" t="s">
+        <v>692</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="J81" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="K81" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="L81" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="O81" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7774,50 +8340,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59840</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>156277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>699</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="J82" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="K82" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="L82" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7839,56 +8409,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="X82" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="Y82" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59840</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>156278</v>
+      </c>
+      <c r="C83" t="s">
+        <v>709</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="J83" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="K83" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="L83" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7910,56 +8484,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="X83" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="Y83" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59840</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C84" t="s">
+        <v>719</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="J84" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="K84" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="L84" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="O84" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7981,56 +8559,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="X84" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="Y84" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59840</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>40216</v>
+      </c>
+      <c r="C85" t="s">
+        <v>727</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="J85" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="K85" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="L85" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="O85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8052,56 +8634,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="X85" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="Y85" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59840</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>84809</v>
+      </c>
+      <c r="C86" t="s">
+        <v>736</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="J86" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="K86" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="L86" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="O86" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8123,56 +8709,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="X86" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="Y86" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59840</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C87" t="s">
+        <v>719</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="J87" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="K87" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="L87" t="s">
-        <v>668</v>
+        <v>750</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="O87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8194,47 +8784,51 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="X87" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="Y87" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>59840</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>156279</v>
+      </c>
+      <c r="C88" t="s">
+        <v>754</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="J88" t="s">
-        <v>674</v>
+        <v>757</v>
       </c>
       <c r="K88" t="s">
-        <v>675</v>
+        <v>758</v>
       </c>
       <c r="L88" t="s">
-        <v>676</v>
+        <v>759</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8261,56 +8855,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="X88" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="Y88" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>59840</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>156280</v>
+      </c>
+      <c r="C89" t="s">
+        <v>763</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>681</v>
+        <v>765</v>
       </c>
       <c r="J89" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="K89" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="L89" t="s">
-        <v>684</v>
+        <v>768</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8328,56 +8926,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="X89" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="Y89" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>59840</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>154836</v>
+      </c>
+      <c r="C90" t="s">
+        <v>771</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
       <c r="J90" t="s">
-        <v>689</v>
+        <v>774</v>
       </c>
       <c r="K90" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
       <c r="L90" t="s">
-        <v>691</v>
+        <v>776</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="O90" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8395,47 +8997,51 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="X90" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="Y90" t="s">
-        <v>692</v>
+        <v>777</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>59840</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>156281</v>
+      </c>
+      <c r="C91" t="s">
+        <v>778</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="J91" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="K91" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="L91" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -8462,56 +9068,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="X91" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="Y91" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>59840</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>156282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>785</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="J92" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
       <c r="K92" t="s">
-        <v>702</v>
+        <v>789</v>
       </c>
       <c r="L92" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="O92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="n">
@@ -8533,50 +9143,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>59840</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>156283</v>
+      </c>
+      <c r="C93" t="s">
+        <v>793</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="J93" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="K93" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="L93" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="O93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8600,7 +9214,7 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>712</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
